--- a/SeleniumWebDriver/TestData/TestData.xlsx
+++ b/SeleniumWebDriver/TestData/TestData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="SearchData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Test Case</t>
   </si>
@@ -65,6 +66,9 @@
   </si>
   <si>
     <t>&lt;&lt;Specify current location in Test Case&gt;&gt;</t>
+  </si>
+  <si>
+    <t>No. of Restaurants</t>
   </si>
 </sst>
 </file>
@@ -432,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,9 +448,10 @@
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +464,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -471,8 +479,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -484,7 +495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -496,7 +507,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -507,8 +518,11 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -520,7 +534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
